--- a/Effect/Effect.xlsx
+++ b/Effect/Effect.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>総分割数</t>
     <rPh sb="0" eb="1">
@@ -101,6 +101,13 @@
   </si>
   <si>
     <t>//name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tktk_Sword_5.png</t>
+  </si>
+  <si>
+    <t>Effect01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -426,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -483,6 +490,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>192</v>
+      </c>
+      <c r="F3">
+        <v>192</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Effect/Effect.xlsx
+++ b/Effect/Effect.xlsx
@@ -436,7 +436,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -495,7 +495,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>5</v>
